--- a/TemperatureData/RockyPond/0702_2024.xlsx
+++ b/TemperatureData/RockyPond/0702_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/RockyPond/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\RockyPond\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88734318-F605-4D49-AFD2-87B4DA14DF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE0F00-C9C8-4D8E-907C-39D69850D2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{C5E3BF68-2B60-4B90-8279-A3EF1D21EB14}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{C5E3BF68-2B60-4B90-8279-A3EF1D21EB14}"/>
   </bookViews>
   <sheets>
     <sheet name="0702_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Plot Title: Rutland - Rocky Pond</t>
   </si>
@@ -50,9 +50,6 @@
     <t>End Of File (LGR S/N: 21422111)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Hobo logger for  Rocky Pond</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>#Logger was collected on 08/01/2024 at 11:05</t>
+  </si>
+  <si>
+    <t>#All data after this date/time was deleted</t>
   </si>
 </sst>
 </file>
@@ -552,10 +552,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -931,9 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4594DE12-C419-46FA-A4F5-14D14087779E}">
-  <dimension ref="A1:H5403"/>
+  <dimension ref="A1:H5375"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5362" workbookViewId="0">
+      <selection activeCell="A5403" sqref="A5376:XFD5403"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -76193,398 +76194,6 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5376">
-        <v>5374</v>
-      </c>
-      <c r="B5376" s="1">
-        <v>45505.46875</v>
-      </c>
-      <c r="C5376">
-        <v>94.632999999999996</v>
-      </c>
-      <c r="D5376">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5377">
-        <v>5375</v>
-      </c>
-      <c r="B5377" s="1">
-        <v>45505.479166666664</v>
-      </c>
-      <c r="C5377">
-        <v>108.108</v>
-      </c>
-      <c r="D5377">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5378">
-        <v>5376</v>
-      </c>
-      <c r="B5378" s="1">
-        <v>45505.489583333336</v>
-      </c>
-      <c r="C5378">
-        <v>112.244</v>
-      </c>
-      <c r="D5378">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5379">
-        <v>5377</v>
-      </c>
-      <c r="B5379" s="1">
-        <v>45505.5</v>
-      </c>
-      <c r="C5379">
-        <v>101.887</v>
-      </c>
-      <c r="D5379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5380">
-        <v>5378</v>
-      </c>
-      <c r="B5380" s="1">
-        <v>45505.510416666664</v>
-      </c>
-      <c r="C5380">
-        <v>91.986999999999995</v>
-      </c>
-      <c r="D5380">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5381">
-        <v>5379</v>
-      </c>
-      <c r="B5381" s="1">
-        <v>45505.520833333336</v>
-      </c>
-      <c r="C5381">
-        <v>87.552000000000007</v>
-      </c>
-      <c r="D5381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5382">
-        <v>5380</v>
-      </c>
-      <c r="B5382" s="1">
-        <v>45505.53125</v>
-      </c>
-      <c r="C5382">
-        <v>85.734999999999999</v>
-      </c>
-      <c r="D5382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5383">
-        <v>5381</v>
-      </c>
-      <c r="B5383" s="1">
-        <v>45505.541666666664</v>
-      </c>
-      <c r="C5383">
-        <v>84.474000000000004</v>
-      </c>
-      <c r="D5383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5384">
-        <v>5382</v>
-      </c>
-      <c r="B5384" s="1">
-        <v>45505.552083333336</v>
-      </c>
-      <c r="C5384">
-        <v>85.013999999999996</v>
-      </c>
-      <c r="D5384">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5385">
-        <v>5383</v>
-      </c>
-      <c r="B5385" s="1">
-        <v>45505.5625</v>
-      </c>
-      <c r="C5385">
-        <v>84.474000000000004</v>
-      </c>
-      <c r="D5385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5386">
-        <v>5384</v>
-      </c>
-      <c r="B5386" s="1">
-        <v>45505.572916666664</v>
-      </c>
-      <c r="C5386">
-        <v>84.653999999999996</v>
-      </c>
-      <c r="D5386">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5387">
-        <v>5385</v>
-      </c>
-      <c r="B5387" s="1">
-        <v>45505.583333333336</v>
-      </c>
-      <c r="C5387">
-        <v>86.459000000000003</v>
-      </c>
-      <c r="D5387">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5388">
-        <v>5386</v>
-      </c>
-      <c r="B5388" s="1">
-        <v>45505.59375</v>
-      </c>
-      <c r="C5388">
-        <v>88.281999999999996</v>
-      </c>
-      <c r="D5388">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5389">
-        <v>5387</v>
-      </c>
-      <c r="B5389" s="1">
-        <v>45505.604166666664</v>
-      </c>
-      <c r="C5389">
-        <v>89.384</v>
-      </c>
-      <c r="D5389">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5390">
-        <v>5388</v>
-      </c>
-      <c r="B5390" s="1">
-        <v>45505.614583333336</v>
-      </c>
-      <c r="C5390">
-        <v>92.926000000000002</v>
-      </c>
-      <c r="D5390">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5391">
-        <v>5389</v>
-      </c>
-      <c r="B5391" s="1">
-        <v>45505.625</v>
-      </c>
-      <c r="C5391">
-        <v>94.253</v>
-      </c>
-      <c r="D5391">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5392">
-        <v>5390</v>
-      </c>
-      <c r="B5392" s="1">
-        <v>45505.635416666664</v>
-      </c>
-      <c r="C5392">
-        <v>90.123999999999995</v>
-      </c>
-      <c r="D5392">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5393" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5393">
-        <v>5391</v>
-      </c>
-      <c r="B5393" s="1">
-        <v>45505.645833333336</v>
-      </c>
-      <c r="C5393">
-        <v>88.465999999999994</v>
-      </c>
-      <c r="D5393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5394" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5394">
-        <v>5392</v>
-      </c>
-      <c r="B5394" s="1">
-        <v>45505.65625</v>
-      </c>
-      <c r="C5394">
-        <v>93.492999999999995</v>
-      </c>
-      <c r="D5394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5395" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5395">
-        <v>5393</v>
-      </c>
-      <c r="B5395" s="1">
-        <v>45505.666666666664</v>
-      </c>
-      <c r="C5395">
-        <v>93.492999999999995</v>
-      </c>
-      <c r="D5395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5396" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5396">
-        <v>5394</v>
-      </c>
-      <c r="B5396" s="1">
-        <v>45505.677083333336</v>
-      </c>
-      <c r="C5396">
-        <v>88.65</v>
-      </c>
-      <c r="D5396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5397" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5397">
-        <v>5395</v>
-      </c>
-      <c r="B5397" s="1">
-        <v>45505.6875</v>
-      </c>
-      <c r="C5397">
-        <v>85.373999999999995</v>
-      </c>
-      <c r="D5397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5398" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5398">
-        <v>5396</v>
-      </c>
-      <c r="B5398" s="1">
-        <v>45505.697916666664</v>
-      </c>
-      <c r="C5398">
-        <v>83.043000000000006</v>
-      </c>
-      <c r="D5398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5399" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5399">
-        <v>5397</v>
-      </c>
-      <c r="B5399" s="1">
-        <v>45505.708333333336</v>
-      </c>
-      <c r="C5399">
-        <v>81.09</v>
-      </c>
-      <c r="D5399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5400" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5400">
-        <v>5398</v>
-      </c>
-      <c r="B5400" s="1">
-        <v>45505.71875</v>
-      </c>
-      <c r="C5400">
-        <v>79.150999999999996</v>
-      </c>
-      <c r="D5400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5401" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5401">
-        <v>5399</v>
-      </c>
-      <c r="B5401" s="1">
-        <v>45505.729166666664</v>
-      </c>
-      <c r="C5401">
-        <v>77.923000000000002</v>
-      </c>
-      <c r="D5401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5402" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5402">
-        <v>5400</v>
-      </c>
-      <c r="B5402" s="1">
-        <v>45505.737199074072</v>
-      </c>
-      <c r="E5402" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5402" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5403" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5403">
-        <v>5401</v>
-      </c>
-      <c r="B5403" s="1">
-        <v>45505.738125000003</v>
-      </c>
-      <c r="G5403" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5403" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -76592,42 +76201,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEEE23B-9168-4928-B36E-4DB3EA12E7EC}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -76863,15 +76477,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -76882,14 +76487,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4C42A0C-9AED-4EBF-886A-1B4B5E950735}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4C42A0C-9AED-4EBF-886A-1B4B5E950735}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B094147-6B63-49A3-9AB3-FC3A8837136A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0D75092-E546-4900-9E1C-775C38A6A40F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0D75092-E546-4900-9E1C-775C38A6A40F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B094147-6B63-49A3-9AB3-FC3A8837136A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>